--- a/SCBAA/2019/Region 1.xlsx
+++ b/SCBAA/2019/Region 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207F30E1-3E8F-49B6-9E85-3C03314D37C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD630F6C-D63A-4833-9889-212828043415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13545" yWindow="795" windowWidth="14265" windowHeight="12495" firstSheet="5" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="8" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Batac" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1024,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,7 +1189,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>69672372.892999992</v>
       </c>
     </row>
@@ -1236,7 +1242,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>63174760.230000004</v>
       </c>
     </row>
@@ -1427,7 +1432,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>895957492.12300003</v>
       </c>
     </row>
@@ -2004,7 +2008,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>598515931.0999999</v>
       </c>
     </row>
@@ -2171,7 +2174,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="34">
-        <f>24382603.27+61820206.44+177044.25</f>
         <v>86379853.959999993</v>
       </c>
     </row>
@@ -2180,7 +2182,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>208871639.57999998</v>
       </c>
     </row>
@@ -2192,7 +2193,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>807387570.67999983</v>
       </c>
     </row>
@@ -2214,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A90583-0586-44F3-972D-F93194D91F3D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E81" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F92" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,7 +2372,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>149791866.47</v>
       </c>
     </row>
@@ -2426,7 +2425,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>165574220.75999996</v>
       </c>
     </row>
@@ -2617,7 +2615,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>915473819.32999992</v>
       </c>
     </row>
@@ -3008,7 +3005,6 @@
         <v>47</v>
       </c>
       <c r="E75" s="36">
-        <f>10567165.07+528358.26</f>
         <v>11095523.33</v>
       </c>
     </row>
@@ -3195,7 +3191,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>804888243.03999996</v>
       </c>
     </row>
@@ -3370,7 +3365,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>57997803.439999998</v>
       </c>
     </row>
@@ -3382,7 +3376,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>862886046.48000002</v>
       </c>
     </row>
@@ -9350,8 +9343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BB1C94-F952-4937-9AAC-C9EC31937B39}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9508,7 +9501,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>59497259.390000001</v>
       </c>
     </row>
@@ -9551,7 +9543,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="76">
-        <f>2004502.24+6994067.98</f>
         <v>8998570.2200000007</v>
       </c>
     </row>
@@ -9563,7 +9554,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>52462123.5</v>
       </c>
     </row>
@@ -9754,7 +9744,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1058647968.89</v>
       </c>
     </row>
@@ -9811,7 +9800,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="76">
-        <f>133549354.01+440100+30000</f>
         <v>134019454.01000001</v>
       </c>
     </row>
@@ -10332,7 +10320,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>587998594.71000016</v>
       </c>
     </row>
@@ -10499,7 +10486,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="76">
-        <f>5748169.02+152388203.25</f>
         <v>158136372.27000001</v>
       </c>
     </row>
@@ -10508,7 +10494,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>158136372.27000001</v>
       </c>
     </row>
@@ -10520,7 +10505,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>746134966.98000014</v>
       </c>
     </row>
@@ -10542,8 +10526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9A894B-9EB1-483C-BF23-9842E3BF804A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10700,7 +10684,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>140833846.04999998</v>
       </c>
     </row>
@@ -10754,7 +10737,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>116547601.5</v>
       </c>
     </row>
@@ -10945,7 +10927,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>669747455.30999994</v>
       </c>
     </row>
@@ -11336,7 +11317,6 @@
         <v>47</v>
       </c>
       <c r="E75" s="43">
-        <f>31200+1175802.9</f>
         <v>1207002.8999999999</v>
       </c>
     </row>
@@ -11523,7 +11503,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>531067425.20999998</v>
       </c>
     </row>
@@ -11690,7 +11669,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="43">
-        <f>6915877.24+32311859.88</f>
         <v>39227737.119999997</v>
       </c>
     </row>
@@ -11699,7 +11677,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>77188593.979999989</v>
       </c>
     </row>
@@ -11711,7 +11688,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>608256019.18999994</v>
       </c>
     </row>
